--- a/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/surgeData207.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/surgeData207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_207_old mans lake/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="803" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B0493A2-E5BE-43F3-A569-716A7A75A992}"/>
+  <xr:revisionPtr revIDLastSave="804" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3992772F-38C8-4937-9DDF-2E2F69764051}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1226,6 +1226,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,9 +1242,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1306,9 +1306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1346,7 +1346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1452,7 +1452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1594,7 +1594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1605,153 +1605,153 @@
   <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ17" sqref="AQ17"/>
+      <pane xSplit="2" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="32" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="34" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="33" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="35" t="s">
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>162</v>
       </c>
@@ -2012,15 +2012,6 @@
       <c r="AN3" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>178</v>
-      </c>
       <c r="BM3">
         <v>1.7384999999999999</v>
       </c>
@@ -2034,7 +2025,7 @@
         <v>0.62291666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>162</v>
       </c>
@@ -2087,7 +2078,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>162</v>
       </c>
@@ -2140,7 +2131,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
@@ -2196,7 +2187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
@@ -2249,7 +2240,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>162</v>
       </c>
@@ -2302,7 +2293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>162</v>
       </c>
@@ -2355,7 +2346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>162</v>
       </c>
@@ -2411,7 +2402,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>162</v>
       </c>
@@ -2470,7 +2461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>162</v>
       </c>
@@ -2547,7 +2538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>162</v>
       </c>
@@ -2600,7 +2591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>162</v>
       </c>
@@ -2704,7 +2695,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>162</v>
       </c>
@@ -2808,7 +2799,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>162</v>
       </c>
@@ -2912,7 +2903,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>162</v>
       </c>
@@ -2987,6 +2978,15 @@
       </c>
       <c r="AN17" t="s">
         <v>175</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3012,14 +3012,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -3688,17 +3688,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>162</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>162</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>162</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>162</v>
       </c>
@@ -3940,14 +3940,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>125</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -4071,62 +4071,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4591,23 +4535,86 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA34717-D6CC-4CD4-B8FC-9B0228131B2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4616,10 +4623,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA34717-D6CC-4CD4-B8FC-9B0228131B2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/surgeData207.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/surgeData207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="804" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3992772F-38C8-4937-9DDF-2E2F69764051}"/>
+  <xr:revisionPtr revIDLastSave="807" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6811ADCD-12F8-4CDB-9352-999A5AC858A4}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1305,6 +1305,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1605,8 +1609,8 @@
   <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM17" sqref="AM17"/>
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,6 +2983,15 @@
       <c r="AN17" t="s">
         <v>175</v>
       </c>
+      <c r="AQ17">
+        <v>13.4</v>
+      </c>
+      <c r="AR17">
+        <v>9.4</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
       <c r="BJ17" t="s">
         <v>176</v>
       </c>
@@ -4071,6 +4084,57 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4535,63 +4599,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA34717-D6CC-4CD4-B8FC-9B0228131B2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4614,28 +4649,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>

--- a/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/surgeData207.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/surgeData207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_207_old mans lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6811ADCD-12F8-4CDB-9352-999A5AC858A4}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55AA5A50-8234-4D4B-BBCA-26315F0DA671}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1610,7 +1610,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA17" sqref="BA17"/>
+      <selection pane="topRight" activeCell="AQ17" sqref="AQ17:AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2983,15 +2983,6 @@
       <c r="AN17" t="s">
         <v>175</v>
       </c>
-      <c r="AQ17">
-        <v>13.4</v>
-      </c>
-      <c r="AR17">
-        <v>9.4</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
       <c r="BJ17" t="s">
         <v>176</v>
       </c>
@@ -4084,57 +4075,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4599,34 +4539,63 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA34717-D6CC-4CD4-B8FC-9B0228131B2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4649,6 +4618,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
